--- a/linux-kernel/ULK/interrupt_exception.xlsx
+++ b/linux-kernel/ULK/interrupt_exception.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>异步中断：硬件设备产生，比如硬件或定时器</t>
   </si>
@@ -126,6 +126,69 @@
   <si>
     <t>linux细分了很多门，其中用DPL来控制门权限，防止用户层直接发中断命令。</t>
   </si>
+  <si>
+    <t>linux提供set_trap_gate等函数来处理初始化IDT中断描述符表</t>
+  </si>
+  <si>
+    <t>在异常处理初始化时</t>
+  </si>
+  <si>
+    <t>set_trap_gate(0, &amp;divide_error)</t>
+  </si>
+  <si>
+    <t>set_trap_gate(1, &amp;debug)</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>set_trap_gate(19, &amp;simd_coprocessor_error)</t>
+  </si>
+  <si>
+    <t>set_system_gate(128, &amp;systemcall)</t>
+  </si>
+  <si>
+    <t>在硬件中断初始化时init_IRQ</t>
+  </si>
+  <si>
+    <t>for(int i=0; i&lt; NRIRQS; i++)</t>
+  </si>
+  <si>
+    <t>if(i+32 ！= 128）</t>
+  </si>
+  <si>
+    <t>set_intr_gate(i+32, interrupt[i]);</t>
+  </si>
+  <si>
+    <t>其中interrupt数组中的地址都是固定指向以下汇编代码地址</t>
+  </si>
+  <si>
+    <t>pushl $n-256</t>
+  </si>
+  <si>
+    <t>jump common_interrupt</t>
+  </si>
+  <si>
+    <t>这样发生中断时就是调用common_interrupt公共函数，参数就在栈中指明了终端号</t>
+  </si>
+  <si>
+    <t>common_interrupt函数除了做cpu压栈和恢复等动作，中间调用了do_IRQ，它会通过索引中断描述符表来进行调用ISR</t>
+  </si>
+  <si>
+    <t>宗上如图</t>
+  </si>
+  <si>
+    <t>异常处理</t>
+  </si>
+  <si>
+    <t>CPU产生的大部分异常都被linux解释为出错条件，发生时调用IDT中的对应异常处理程序，程序内通知发生异常的进程描述符，设置异常向量和硬件错误码。</t>
+  </si>
+  <si>
+    <t>中断处理</t>
+  </si>
+  <si>
+    <t>中断发生时，向内核栈压如IRQ值和寄存器内容，应答PIC（中断控制器），执行这个IRQ上的所有程ISR（中断服务历程），最后调到ret_from_intr</t>
+  </si>
 </sst>
 </file>
 
@@ -133,9 +196,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,6 +224,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -176,9 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,9 +270,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,67 +346,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -278,28 +354,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,169 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +402,162 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +596,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +638,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,19 +660,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,8 +669,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,118 +679,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,28 +799,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -834,6 +897,65 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Snip Same Side Corner Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="13154025"/>
+          <a:ext cx="885825" cy="1732915"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 27455"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1179,10 +1301,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="" altLang="en-US" sz="900"/>
+              <a:rPr lang="en-US" altLang="en-US" sz="900"/>
               <a:t>IDT中断描述符表</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1339,10 +1461,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
             <a:t>idtr寄存器</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1556,12 +1678,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
-            <a:t>任务门</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="900"/>
-            <a:t>描述符</a:t>
+            <a:t>任务门描述符</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
@@ -1719,12 +1837,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
-            <a:t>中断</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="900"/>
-            <a:t>门描述符</a:t>
+            <a:t>中断门描述符</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
@@ -1882,17 +1996,5024 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="900"/>
-            <a:t>陷阱</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="900"/>
-            <a:t>门描述符</a:t>
+            <a:t>陷阱门描述符</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1657350" y="11363325"/>
+          <a:ext cx="1207135" cy="3042920"/>
+          <a:chOff x="2385" y="5115"/>
+          <a:chExt cx="1923" cy="4792"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2505" y="5505"/>
+            <a:ext cx="1803" cy="4402"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Text Box 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2385" y="5115"/>
+            <a:ext cx="1612" cy="379"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+              <a:t>IDT中断描述符表</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27305</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="11001375"/>
+          <a:ext cx="789305" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+            <a:t>idtr寄存器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27305</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Curved Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1657350" y="11096625"/>
+          <a:ext cx="84455" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -281955"/>
+            <a:gd name="adj2" fmla="val 46721"/>
+            <a:gd name="adj3" fmla="val 381955"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>191135</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1742440" y="11601450"/>
+          <a:ext cx="1115060" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>0异常描述符</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="11134725"/>
+          <a:ext cx="1115060" cy="323215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>0除异常处理程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="11791950"/>
+          <a:ext cx="1114425" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+            <a:t>异常描述符</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="12734925"/>
+          <a:ext cx="1114425" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>33中断门</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+            <a:t>描述符</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="12925425"/>
+          <a:ext cx="1114425" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+            <a:t>中断门描述符</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="13792200"/>
+          <a:ext cx="1114425" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>128</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+            <a:t>中断门描述符</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="11715750"/>
+          <a:ext cx="1115060" cy="323215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>其他异常处理程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="12954000"/>
+          <a:ext cx="1305560" cy="675005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>通用异常汇编入口</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>调用do_IRQ(n)</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Curved Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2857500" y="11296650"/>
+          <a:ext cx="609600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Curved Connector 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2857500" y="11877675"/>
+          <a:ext cx="619125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50051"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Curved Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="12820650"/>
+          <a:ext cx="771525" cy="461645"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50041"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Curved Connector 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2857500" y="13291820"/>
+          <a:ext cx="771525" cy="595630"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50041"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Curved Connector 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="13020675"/>
+          <a:ext cx="762000" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>153035</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5868035" y="12868275"/>
+          <a:ext cx="447040" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6315075" y="12868275"/>
+          <a:ext cx="447040" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161290</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6762750" y="12868275"/>
+          <a:ext cx="447040" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161290</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7209790" y="12868275"/>
+          <a:ext cx="1275080" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>170815</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8486775" y="12868275"/>
+          <a:ext cx="447040" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1320165" cy="240665"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Text Box 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="12611100"/>
+          <a:ext cx="1320165" cy="240665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>irq描述符表 NR_IRQS个</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="864870" cy="202565"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Text Box 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="13744575"/>
+          <a:ext cx="864870" cy="202565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>handler</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="864870" cy="202565"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Text Box 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="14192250"/>
+          <a:ext cx="864870" cy="202565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>action</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>61595</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Curved Connector 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4934585" y="12868275"/>
+          <a:ext cx="1604010" cy="423545"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43032"/>
+            <a:gd name="adj2" fmla="val 156222"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Curved Connector 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6989445" y="14293850"/>
+          <a:ext cx="440055" cy="369570"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50072"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Curved Connector 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="53" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8399145" y="14711045"/>
+          <a:ext cx="411480" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7962900" y="13582650"/>
+          <a:ext cx="1570355" cy="438785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1112520" cy="202565"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Text Box 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="13382625"/>
+          <a:ext cx="1112520" cy="202565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="900"/>
+            <a:t>hw_irq_controller</a:t>
+          </a:r>
+          <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Curved Connector 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="57" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6989445" y="13802360"/>
+          <a:ext cx="973455" cy="43815"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50033"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="Group 62"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7429500" y="14163675"/>
+          <a:ext cx="971550" cy="797560"/>
+          <a:chOff x="11685" y="22290"/>
+          <a:chExt cx="1530" cy="1256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="50" name="Group 49"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11685" y="22290"/>
+            <a:ext cx="1530" cy="1257"/>
+            <a:chOff x="12585" y="21960"/>
+            <a:chExt cx="1530" cy="1257"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="Rectangle 46"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12585" y="22275"/>
+              <a:ext cx="1531" cy="943"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="Text Box 47"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12585" y="21960"/>
+              <a:ext cx="1092" cy="319"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="" altLang="en-US" sz="900"/>
+                <a:t>irqaction</a:t>
+              </a:r>
+              <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="Text Box 48"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12585" y="22890"/>
+              <a:ext cx="1527" cy="319"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="" altLang="en-US" sz="900"/>
+                <a:t>next</a:t>
+              </a:r>
+              <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="Text Box 59"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11925" y="22770"/>
+            <a:ext cx="927" cy="319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="" altLang="en-US" sz="900"/>
+              <a:t>ISR</a:t>
+            </a:r>
+            <a:endParaRPr lang="" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="69" name="Group 68"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8810625" y="14211300"/>
+          <a:ext cx="971550" cy="797560"/>
+          <a:chOff x="13860" y="22365"/>
+          <a:chExt cx="1530" cy="1256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="52" name="Group 51"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13860" y="22365"/>
+            <a:ext cx="1530" cy="1257"/>
+            <a:chOff x="12585" y="21960"/>
+            <a:chExt cx="1530" cy="1257"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="Rectangle 52"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12585" y="22275"/>
+              <a:ext cx="1531" cy="943"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="Text Box 53"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12585" y="21960"/>
+              <a:ext cx="1092" cy="319"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+                <a:t>irqaction</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="Text Box 54"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12585" y="22890"/>
+              <a:ext cx="1527" cy="319"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+                <a:t>next</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="Text Box 61"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14175" y="22815"/>
+            <a:ext cx="927" cy="319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="900"/>
+              <a:t>ISR</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2156,13 +7277,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D59"/>
+  <dimension ref="A2:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="Q61" sqref="Q61"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="AZ78" sqref="AZ78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85714285714286" defaultRowHeight="11.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="2.85714285714286" defaultRowHeight="11.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="16384" width="2.85714285714286" style="1" customWidth="1"/>
   </cols>
@@ -2352,6 +7473,111 @@
         <v>36</v>
       </c>
     </row>
+    <row r="60" s="1" customFormat="1" spans="4:4">
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="5:5">
+      <c r="E61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
